--- a/src/XLAssignment.xlsx
+++ b/src/XLAssignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonalik\IdeaProjects\TESTNG_Assignment\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4AB3C-5C4A-4BFA-8D55-020B915862DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACBEBE-4037-4A2B-ADC8-F58A713CD7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33C57135-D6C3-4BAC-882E-387ADDCB7F44}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -258,12 +258,16 @@
   </si>
   <si>
     <t>6/5/1988</t>
+  </si>
+  <si>
+    <t>Mrunal Chitale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,15 +640,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102D9F0-46EE-44E5-AB85-C235542577B6}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -665,7 +669,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
